--- a/02-Avancado1-Funcoes/03-FuncoesBasicas/Aula-13-ExcelAvancado1-PlanilhaDeFrutas-FuncoesBasicas.xlsx
+++ b/02-Avancado1-Funcoes/03-FuncoesBasicas/Aula-13-ExcelAvancado1-PlanilhaDeFrutas-FuncoesBasicas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\03-FuncoesBasicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE701C5-95C1-4C7D-AF38-00966DC8B433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA9B1AD-AE98-4FCB-8B22-E759D4B79BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha Frutas" sheetId="4" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -524,12 +524,6 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -689,17 +683,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,25 +712,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1850,134 +1844,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5026B674-3263-478F-92D1-05DEA07E7DF8}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="17" width="9" customWidth="1"/>
     <col min="18" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="14.25">
-      <c r="A1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="13.8">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" s="30" customFormat="1" ht="14.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" s="30" customFormat="1" ht="14.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="14.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" s="30" customFormat="1" ht="14.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="13.8">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="13.8">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="13.8">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="13.8">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="B8" s="23" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="B8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+    <row r="9" spans="1:9" ht="15.6">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+    <row r="10" spans="1:9" ht="15.6">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -2000,8 +1994,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="18" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2031,7 +2025,7 @@
       <c r="D13" s="2">
         <v>1.33</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="19">
         <v>6000</v>
       </c>
       <c r="F13" s="8"/>
@@ -2039,7 +2033,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2049,7 +2043,7 @@
       <c r="D14" s="2">
         <v>1.5</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="19">
         <v>3000</v>
       </c>
       <c r="F14" s="8"/>
@@ -2057,7 +2051,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2067,7 +2061,7 @@
       <c r="D15" s="2">
         <v>1.25</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="19">
         <v>3500</v>
       </c>
       <c r="F15" s="8"/>
@@ -2075,7 +2069,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2085,7 +2079,7 @@
       <c r="D16" s="2">
         <v>3.5</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="19">
         <v>1000</v>
       </c>
       <c r="F16" s="8"/>
@@ -2093,7 +2087,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="2:9" ht="15.75">
+    <row r="17" spans="2:9" ht="15.6">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2103,7 +2097,7 @@
       <c r="D17" s="2">
         <v>7</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="19">
         <v>4500</v>
       </c>
       <c r="F17" s="8"/>
@@ -2111,7 +2105,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="2:9" ht="15.75">
+    <row r="18" spans="2:9" ht="15.6">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2121,7 +2115,7 @@
       <c r="D18" s="2">
         <v>5.5</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="19">
         <v>2500</v>
       </c>
       <c r="F18" s="8"/>
@@ -2129,7 +2123,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75">
+    <row r="19" spans="2:9" ht="15.6">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2133,7 @@
       <c r="D19" s="2">
         <v>4.33</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="19">
         <v>8500</v>
       </c>
       <c r="F19" s="8"/>
@@ -2147,7 +2141,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9" ht="15.75">
+    <row r="20" spans="2:9" ht="15.6">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2157,7 +2151,7 @@
       <c r="D20" s="4">
         <v>9</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="19">
         <v>7500</v>
       </c>
       <c r="F20" s="8"/>
@@ -2165,55 +2159,55 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="2:9" ht="15.75">
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="2:9" ht="15.6">
+      <c r="B21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="2:9" ht="15.75">
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="2:9" ht="15.6">
+      <c r="B22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="2:9" ht="15.75">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="2:9" ht="15.6">
+      <c r="B23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="2:9" ht="15.75">
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="2:9" ht="15.6">
+      <c r="B24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:9" ht="15.75">
+    <row r="25" spans="2:9" ht="15.6">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2223,23 +2217,23 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" ht="15.75">
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="2:9" ht="15.6">
+      <c r="B26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75">
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.6">
       <c r="B27" s="17" t="s">
         <v>2</v>
       </c>
@@ -2261,7 +2255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75">
+    <row r="28" spans="2:9" ht="15.6">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2277,7 +2271,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75">
+    <row r="29" spans="2:9" ht="15.6">
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2287,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" ht="15.75">
+    <row r="30" spans="2:9" ht="15.6">
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
@@ -2309,7 +2303,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" ht="15.75">
+    <row r="31" spans="2:9" ht="15.6">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2319,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" ht="15.75">
+    <row r="32" spans="2:9" ht="15.6">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2336,40 +2330,46 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="2:9"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B2:I6"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B33:I35"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -2377,12 +2377,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B2:I6"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2394,85 +2388,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" hidden="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="A1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -2492,8 +2486,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
@@ -2535,7 +2529,7 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2560,7 +2554,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
@@ -2585,7 +2579,7 @@
         <v>4812.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -2610,7 +2604,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2635,7 +2629,7 @@
         <v>34650</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>15125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -2685,7 +2679,7 @@
         <v>40485.5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75">
+    <row r="17" spans="2:8" ht="15.6">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -2710,12 +2704,12 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75">
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="2:8" ht="15.6">
+      <c r="B18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="14">
         <f t="shared" ref="E18:H18" si="2">SUBTOTAL(9,E10:E17)</f>
         <v>36500</v>
@@ -2733,12 +2727,12 @@
         <v>186901</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:8" ht="15.6">
+      <c r="B19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="14">
         <f>SUBTOTAL(1,E10:E17)</f>
         <v>4562.5</v>
@@ -2756,12 +2750,12 @@
         <v>23362.625</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
-      <c r="B20" s="25" t="s">
+    <row r="20" spans="2:8" ht="15.6">
+      <c r="B20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="14">
         <f>SUBTOTAL(4,E10:E17)</f>
         <v>8500</v>
@@ -2779,12 +2773,12 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="2:8" ht="15.6">
+      <c r="B21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="14">
         <f>SUBTOTAL(5,E10:E17)</f>
         <v>1000</v>
@@ -2823,87 +2817,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" hidden="1"/>
+    <col min="11" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="A1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" s="30" customFormat="1" ht="14.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="13.8">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="15">
         <f>SUBTOTAL(9,E14:E21)</f>
         <v>36500</v>
@@ -2922,11 +2916,11 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="15">
         <f>SUBTOTAL(1,E14:E21)</f>
         <v>4562.5</v>
@@ -2945,11 +2939,11 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="15">
         <f>SUBTOTAL(4,E14:E21)</f>
         <v>8500</v>
@@ -2968,11 +2962,11 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="15">
         <f>SUBTOTAL(5,E14:E21)</f>
         <v>1000</v>
@@ -2991,10 +2985,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -3014,8 +3008,8 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
@@ -3032,7 +3026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
@@ -3082,7 +3076,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
@@ -3107,7 +3101,7 @@
         <v>4812.5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75">
+    <row r="17" spans="2:8" ht="15.6">
       <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3132,7 +3126,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75">
+    <row r="18" spans="2:8" ht="15.6">
       <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3157,7 +3151,7 @@
         <v>34650</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75">
+    <row r="19" spans="2:8" ht="15.6">
       <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
@@ -3182,7 +3176,7 @@
         <v>15125</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="2:8" ht="15.6">
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>40485.5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75">
+    <row r="21" spans="2:8" ht="15.6">
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -3235,13 +3229,13 @@
   </sheetData>
   <autoFilter ref="B12:H21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B2:H6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
